--- a/src/main/resources/api_v5.xlsx
+++ b/src/main/resources/api_v5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>wenhuijuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"18965175004","password":"yh601933"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"username":"123334","password":"112222"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,26 @@
   </si>
   <si>
     <t>AfterCheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+   "no":"1",
+   "sql":"select count(1)from sys_user where login_name='admin';",
+   "expectedResult":[{"count(1)":"1"}]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"wenhuijuan","password":"yh601933"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+   "no":"2",
+   "sql":"select count(1)from sys_user where login_name='wenhuijuan';",
+   "expectedResult":[{"count(1)":"1"}]
+}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +239,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,16 +571,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,81 +644,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="10"/>
+    <col min="3" max="3" width="52" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23" style="10" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/api_v5.xlsx
+++ b/src/main/resources/api_v5.xlsx
@@ -66,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"admin","password":"123456a"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"123334","password":"112222"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CaseId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,15 +122,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"wenhuijuan","password":"yh601933"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{
    "no":"2",
    "sql":"select count(1)from sys_user where login_name='wenhuijuan';",
    "expectedResult":[{"count(1)":"1"}]
 }]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"123456a"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"wenhuijuan","password":"yh601933"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":qqqqq","password":"112222"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,16 +571,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -662,31 +662,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,10 +717,10 @@
         <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
